--- a/视觉slam十四讲第一版第二次印刷勘误.xlsx
+++ b/视觉slam十四讲第一版第二次印刷勘误.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="184">
   <si>
     <t>页数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,122 +45,6 @@
   </si>
   <si>
     <t>改为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>式(10.25)</t>
-    <rPh sb="0" eb="1">
-      <t>aa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原文中出现R的地方均应该为Q</t>
-    <rPh sb="0" eb="1">
-      <t>dri</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yyg</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>k</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>bmg</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>r</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>f</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yy</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>fqu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>yiyy</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>o</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请保持和发行版字体的一致性
-例如转置上标为正体</t>
-    <rPh sb="0" eb="1">
-      <t>yge</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wkr</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>t</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>v</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tf</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>thgc</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>pbw</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>r</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>g</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>gcft</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ntg</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>wgq</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>vk</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>lfn</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>lfh</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>h</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>sfi</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>o</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ghd</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>wsg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附录A 式(A.5)</t>
-    <rPh sb="0" eb="1">
-      <t>bwv</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>aa</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -181,19 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P52. 第二段</t>
-    <rPh sb="5" eb="6">
-      <t>txh</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>fg</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wdm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ij=-k的描述替换为ij=k，-90度替换为90度</t>
     <rPh sb="5" eb="6">
       <t>r</t>
@@ -222,13 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P54. 式(3.33)</t>
-    <rPh sb="5" eb="6">
-      <t>aa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点乘结果通常定义为标量</t>
     <rPh sb="0" eb="1">
       <t>hko</t>
@@ -257,13 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P110. 式(6.14)</t>
-    <rPh sb="6" eb="7">
-      <t>aa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>应对整个目标函数求</t>
     <rPh sb="0" eb="1">
       <t>yic</t>
@@ -286,45 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P272. 式(11.2)</t>
-    <rPh sb="6" eb="7">
-      <t>aa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P272. 式(11.3) 以及前面的描述</t>
-    <rPh sb="6" eb="7">
-      <t>aa</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>c</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ey</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>uej</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>dm</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>r</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ras</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P273. 式(11.7)</t>
-    <rPh sb="6" eb="7">
-      <t>aa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第二行少了个右括号</t>
     <rPh sb="0" eb="1">
       <t>txh</t>
@@ -353,13 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P40. 式(3.3)</t>
-    <rPh sb="5" eb="6">
-      <t>aa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第一步应该为行列式符号</t>
     <rPh sb="0" eb="1">
       <t>txh</t>
@@ -391,11 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后面推导不带       ，保持符号一致</t>
     <rPh sb="0" eb="1">
       <t>rgk</t>
@@ -476,6 +282,1516 @@
   </si>
   <si>
     <t>式(A.10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>式(10.25)</t>
+  </si>
+  <si>
+    <t>原文中出现R的地方均应该为Q</t>
+  </si>
+  <si>
+    <t>请保持和发行版字体的一致性
+例如转置上标为正体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P58.第一段</t>
+    <rPh sb="4" eb="5">
+      <t>di yi duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slambook/ch3/useGeometry/useGeometry.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slambook/ch3/useGeometry/eightGeometry.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P52.第二段</t>
+    <rPh sb="4" eb="5">
+      <t>txh</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fg</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wdm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P54.式(3.33)</t>
+    <rPh sb="4" eb="5">
+      <t>aa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P40.式(3.3)</t>
+    <rPh sb="4" eb="5">
+      <t>aa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P110.式(6.14)</t>
+    <rPh sb="5" eb="6">
+      <t>aa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P272.式(11.2)</t>
+    <rPh sb="5" eb="6">
+      <t>aa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P272.式(11.3) 以及前面的描述</t>
+    <rPh sb="5" eb="6">
+      <t>aa</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>c</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ey</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>uej</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dm</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>r</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ras</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P273.式(11.7)</t>
+    <rPh sb="5" eb="6">
+      <t>aa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附录A式(A.5)</t>
+    <rPh sb="0" eb="1">
+      <t>bwv</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>aa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P75.倒数第四行</t>
+    <rPh sb="4" eb="5">
+      <t>dao shu di si hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应为单位阵I而不是数字1</t>
+    <rPh sb="0" eb="1">
+      <t>ying</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dan wei zhen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>er bu shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P94.倒数第六行</t>
+    <rPh sb="4" eb="5">
+      <t>dao shu di liu hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也就是位于0～65536的值</t>
+    <rPh sb="0" eb="1">
+      <t>ye jiu shi wei yu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也就是位于0～65535的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P95.倒数第七行</t>
+    <rPh sb="4" eb="5">
+      <t>dao shu di qi hang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opencv.org/downloads.html下载，选择OpenCV for Linux版本即可</t>
+    <rPh sb="25" eb="26">
+      <t>xia zai</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xuan ze</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ban ben</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ji ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opencv.org/releases.html下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opencv网站现在就是这样的，不分平台版本</t>
+    <rPh sb="6" eb="7">
+      <t>wang zhan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian zai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jiu shi zhe yang de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bu fen</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ping tai ban ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P95.倒数第二行</t>
+    <rPh sb="7" eb="8">
+      <t>er</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenCV会在cmake阶段检查依赖项是否会安装</t>
+    <rPh sb="6" eb="7">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jie duan</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jian cha</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yi lai xiang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi fou hui an zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenCV会在cmake阶段检查依赖项是否已安装</t>
+    <rPh sb="22" eb="23">
+      <t>yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P96.第十一行</t>
+    <rPh sb="4" eb="5">
+      <t>di shi yi hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slambook/ch5/imageBasics/imageBasics.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slambook/ch5/imageBasics.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码注释换行排版之后没有加上//</t>
+    <rPh sb="0" eb="1">
+      <t>dai ma zhu shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huan hang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pai ban zhi hou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jia shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P98.倒数第三段</t>
+    <rPh sb="4" eb="5">
+      <t>dao shu di san duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序的10～17行</t>
+    <rPh sb="0" eb="1">
+      <t>cheng xu de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序的10～22行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P106.式(6.2)</t>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P106.式(6.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P107.第四行</t>
+    <rPh sb="5" eb="6">
+      <t>di si hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求计算状态x的条件概率分布</t>
+    <rPh sb="0" eb="1">
+      <t>qiu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji suan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhuang tai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tiao jian gai lü fen bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算状态x的条件概率分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P108.第四行</t>
+    <rPh sb="5" eb="6">
+      <t>di si hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P108.第五行</t>
+    <rPh sb="5" eb="6">
+      <t>di si hang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P108.式(6.8)</t>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P108.式(6.10)</t>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式使用符号顺序等与前后内容不一致</t>
+    <rPh sb="0" eb="1">
+      <t>gong shi shi yong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shun xu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yu qian hou nei rong bu yi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式使用符号顺序等与前后内容不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P108.式(6.11)</t>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P108.式(6.12)</t>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P110.式(6.16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式使用符号与前后内容不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P112.第二行</t>
+    <rPh sb="5" eb="6">
+      <t>di er hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码注释换行排版之后没有加上//</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct用法</t>
+    <rPh sb="6" eb="7">
+      <t>yong fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//struct用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第y行的头指针</t>
+    <rPh sb="0" eb="1">
+      <t>di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码文件路径与GitHub上不一致</t>
+    <rPh sb="0" eb="1">
+      <t>dai ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lu jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bu yi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码文件路径与GitHub上不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//第y行的头指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向待访问的像素数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//指向待访问的像素数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块置零</t>
+    <rPh sb="0" eb="1">
+      <t>kuai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//块置零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行数写错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位整型的范围不包括65536</t>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu bao kuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参看书本</t>
+    <rPh sb="0" eb="1">
+      <t>can kao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>式子没错，主要原因看备注</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mei cuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhu yao yuan yin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bei zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有对式中的N做出解释，N应为x的维度</t>
+    <rPh sb="0" eb="1">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zuo chu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ying wei</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>de</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wei du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多了两个2</t>
+    <rPh sb="0" eb="1">
+      <t>duo le</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liang ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P119.倒数第十行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di shi hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用build/curve_fitting查看优化结果</t>
+    <rPh sb="0" eb="1">
+      <t>diao yong</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>you hua jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用build/ceres_curve_fitting查看优化结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码文件名与GitHub上不一致</t>
+    <rPh sb="4" eb="5">
+      <t>ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P119.倒数第九行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di shi hang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% build/curve_fitting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% build/ceres_curve_fitting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P125.倒数第二行</t>
+    <rPh sb="5" eb="6">
+      <t>doa shu di er hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OptimizationAlgorithmGaussNewton( solver_ptr );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//OptimizationAlgorithmGaussNewton( solver_ptr );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码注释换行排版之后没有加上//</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P126.第一行</t>
+    <rPh sb="6" eb="7">
+      <t>yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OptimizationAlgorithmDogleg( solver_ptr );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//OptimizationAlgorithmDogleg( solver_ptr );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P127.第十七行</t>
+    <rPh sb="5" eb="6">
+      <t>di</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi qi hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% build/g2o_curve_fitting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码文件名与GitHub上不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P144.式(7.10)</t>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与定义不一致</t>
+    <rPh sb="3" eb="4">
+      <t>bu yi zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P144.式(7.11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P144.式(7.12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P145.图7-8</t>
+    <rPh sb="5" eb="6">
+      <t>tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参看书本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图没错，主要原因看备注</t>
+    <rPh sb="0" eb="1">
+      <t>tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述部分涉及图线、点的颜色，而印刷出来的书本只有黑白，建议采用虚线、实线，并标识点</t>
+    <rPh sb="0" eb="1">
+      <t>miao shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu fen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>she ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tu xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yan se</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>er</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yin shua</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>chu lai de</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shu ben</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhi you hei bai</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>jian yi cai yong</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>xu xian</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>shi xian</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P146.第十行</t>
+    <rPh sb="5" eb="6">
+      <t>di shi hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了基本矩阵和本质矩阵</t>
+    <rPh sb="0" eb="1">
+      <t>chu le</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji chu ju zhen</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ben</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>he ben zhi ju zhen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了基础矩阵和本质矩阵</t>
+    <rPh sb="2" eb="3">
+      <t>ji chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“基本”改为“基础”</t>
+    <rPh sb="1" eb="2">
+      <t>ji ben gai wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P146.倒数第八行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ba</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回顾本节开头的式(7.1)</t>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回顾本节开头的式(7.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式引用错误</t>
+    <rPh sb="0" eb="1">
+      <t>gong shi yin yong cuo wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 相机内参，TUM Freiburg2</t>
+    <rPh sb="3" eb="4">
+      <t>xiang ji nei can</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接删除，这两行根本就没用到</t>
+    <rPh sb="0" eb="1">
+      <t>zhi jie shan chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhe liang hang</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gen ben jiu mei yong dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P148.倒数第十七行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi qi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P148.倒数第十六行</t>
+    <rPh sb="7" eb="8">
+      <t>di</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>liu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mat K=( Mat_&lt;double&gt; ( 3, 3 ) &lt;&lt; 520.9, 0, 325.1, 0, 521.0, 249.7 ,0, 0, 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P149.倒数第十五行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi wu hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cout&lt;&lt;"usage: feature_estraction img1 img2"&lt;&lt;endl;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cout&lt;&lt;"usage: pose_estimation_2d2d img1 img2"&lt;&lt;endl;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序描述错误</t>
+    <rPh sb="0" eb="1">
+      <t>cheng xu miao su cuo wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>miao shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P.150-151.程序输出结果</t>
+    <rPh sb="10" eb="11">
+      <t>cheng xu shu chu jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序输出结果与实际完全不符，包括数值，产生十分大的偏差</t>
+    <rPh sb="0" eb="1">
+      <t>cheng xu shu chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu shi ji wan quan bu fu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>chan hseng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P151.第一段</t>
+    <rPh sb="5" eb="6">
+      <t>di yi duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在程序的输出结果可以看出</t>
+    <rPh sb="0" eb="1">
+      <t>zai cheng xu de shu chu jie guo ke yi kan chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从程序的输出结果可以看出</t>
+    <rPh sb="0" eb="1">
+      <t>cong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有语病，将“会”改为“已”</t>
+    <rPh sb="4" eb="5">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gai wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有语病，删除“求”</t>
+    <rPh sb="0" eb="1">
+      <t>you yu bing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有语病，将“在”改为“从”</t>
+    <rPh sb="0" eb="1">
+      <t>you yu bing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gai wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>c cong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P153.倒数第三行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu di san hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过最二小乘法求解</t>
+    <rPh sb="0" eb="1">
+      <t>ke yi tong guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qiu jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过最小二乘法求解</t>
+    <rPh sb="6" eb="7">
+      <t>er</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“二”与“小”互换位置</t>
+    <rPh sb="1" eb="2">
+      <t>er</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hu huan wei zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P154.第十二行</t>
+    <rPh sb="5" eb="6">
+      <t>di shi er hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们调用OpenCV提供的triangulation函数进行三角化</t>
+    <rPh sb="0" eb="1">
+      <t>wo men diao yong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti gong de</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>han shu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>jin xing san jiao hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们调用OpenCV提供的triangulationPoints函数进行三角化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数描述错误</t>
+    <rPh sb="0" eb="1">
+      <t>han shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>miao shu cuo wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P154.第十三行</t>
+    <rPh sb="7" eb="8">
+      <t>san</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片断</t>
+    <rPh sb="0" eb="1">
+      <t>pian duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片段</t>
+    <rPh sb="0" eb="1">
+      <t>pian duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错别字，将“断”改为“段”</t>
+    <rPh sb="0" eb="1">
+      <t>cuo bie zi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gai wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P161.式(7.33)</t>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间漏了两个2</t>
+    <rPh sb="0" eb="1">
+      <t>zhong jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lou le liang ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P166.程序输出部分第一行</t>
+    <rPh sb="5" eb="6">
+      <t>cheng xu shu chu bu fen</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>di</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P166.程序输出部分第五行</t>
+    <rPh sb="12" eb="13">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d-2d pairs: 78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d-2d pairs: 76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序输出与实际不符</t>
+    <rPh sb="0" eb="1">
+      <t>cheng xu shu chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu shi ji bu fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P167.倒数第十二行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi er hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VertexSBAPointXYZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VertexSBAPointXYZ这个类在g2o/types/sba/types_sba.h中，而不在g2o/types/sba/types_six_dof_expmap.h中，与前文描述不符</t>
+    <rPh sb="17" eb="18">
+      <t>zhe ge</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>lei</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>er</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>bu zai</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>yu qian wen miao</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>miao sh</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>bu fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要原因看备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P192.倒数第四行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu di si hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记非齐次像素坐标</t>
+    <rPh sb="0" eb="1">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fei qi ci xiang su zuo bi a p</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zuo biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记齐次像素坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应为齐次像素坐标，所以删除“非”</t>
+    <rPh sb="0" eb="1">
+      <t>ying wei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>suo yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P194.第八行</t>
+    <rPh sb="5" eb="6">
+      <t>di ba hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数映射写错了</t>
+    <rPh sb="0" eb="1">
+      <t>zhi shu ying she</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xie cuo le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P194.第九行</t>
+    <rPh sb="6" eb="7">
+      <t>jiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左乘扰动模型扰动项应该放在左边</t>
+    <rPh sb="0" eb="1">
+      <t>zuo cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>rao dong mo xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>rao dong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ying gai fang zai zuo bian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P194.倒数第三行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di san hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P195.第四行</t>
+    <rPh sb="5" eb="6">
+      <t>di si hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据上一节的推导</t>
+    <rPh sb="0" eb="1">
+      <t>ju</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shang yi jie</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tui dao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据上一讲的推导</t>
+    <rPh sb="3" eb="4">
+      <t>jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容描述错误，应为上一讲，而不是上一节</t>
+    <rPh sb="0" eb="1">
+      <t>nei rong miao shu cuo wu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ying wei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shang yi jiang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>er bu shi shang yi jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P198.第五行</t>
+    <rPh sb="5" eb="6">
+      <t>di wu hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码注释换行排版之后没有加上//</t>
+  </si>
+  <si>
+    <t>P198.第十七行</t>
+    <rPh sb="5" eb="6">
+      <t>di wu hang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>so(3) and \epsilon the translation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//so(3) and \epsilon the translation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P200.第二行</t>
+    <rPh sb="5" eb="6">
+      <t>di er hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build/direct_sparse ~/dataset/rgbd_dataset_freiburg1_desk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>build/direct_sparse ../data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名与Github上实际不符</t>
+    <rPh sb="10" eb="11">
+      <t>shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% build/pose_estimation_3d2d 1.png 2.png d1.png d2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% build/pose_estimation_3d2d 1.png 2.png 1_depth.png 2_depth.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名与Github上实际不符</t>
+    <rPh sb="0" eb="1">
+      <t>can shu ming</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yu shi ji bu fu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shang</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +1799,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,6 +1824,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -526,17 +1876,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -544,39 +1903,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,13 +1984,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1993900</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4305300</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -635,13 +2022,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>275771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4483100</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>1012371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -673,13 +2060,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2422071</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4936671</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>1104900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -805,13 +2192,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2937329</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>83457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3902529</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>693057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -849,13 +2236,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2641600</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>31984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4546600</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>749299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -893,13 +2280,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1473200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5207000</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>673100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -937,13 +2324,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1917700</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5283200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>647700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -981,13 +2368,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2603500</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>137840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3975100</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>673099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1025,13 +2412,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2959100</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4356100</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>635000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1069,13 +2456,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1346200</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>635000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1112,15 +2499,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>3323771</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
+      <xdr:colOff>3717471</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>273957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1143,7 +2530,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2501900" y="24396700"/>
+          <a:off x="6389914" y="6727371"/>
           <a:ext cx="393700" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1156,15 +2543,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>4109358</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>313871</xdr:rowOff>
+      <xdr:colOff>4350658</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1187,8 +2574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10109200" y="24371300"/>
-          <a:ext cx="241300" cy="292100"/>
+          <a:off x="14541501" y="6738257"/>
+          <a:ext cx="241300" cy="288471"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1327,13 +2714,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7023100</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>2413000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1371,13 +2758,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7302500</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>2438400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1458,19 +2845,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2485571</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:colOff>2140857</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5457371</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:colOff>5112657</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>682171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPr id="22" name="图片 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1489,8 +2876,1504 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12155714" y="4844142"/>
+          <a:off x="11811000" y="4662714"/>
           <a:ext cx="2971800" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1542143</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5377543</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>954314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4608286" y="4499428"/>
+          <a:ext cx="3835400" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1886857</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5620657</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1005114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12319000" y="4499428"/>
+          <a:ext cx="3733800" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2612572</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>308428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4695372</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>778328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5678715" y="11829142"/>
+          <a:ext cx="2082800" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2902857</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>308430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4972957</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>803730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13335000" y="11829144"/>
+          <a:ext cx="2070100" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2322286</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>326572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5103586</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>809172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5388429" y="12863286"/>
+          <a:ext cx="2781300" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2431143</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>308428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5352143</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>765628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12863286" y="12845142"/>
+          <a:ext cx="2921000" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2775857</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>235857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4236357</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>731157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5842000" y="14804571"/>
+          <a:ext cx="1460500" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3029857</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4668157</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>767443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13462000" y="14840857"/>
+          <a:ext cx="1638300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2032000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>272143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5397500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>703943</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5098143" y="15856857"/>
+          <a:ext cx="3365500" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2140858</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5544458</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>752929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12573001" y="15766143"/>
+          <a:ext cx="3403600" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1197428</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6620328</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>738414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4263571" y="17834428"/>
+          <a:ext cx="5422900" cy="520700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1251857</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6662057</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>751114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11684000" y="17834428"/>
+          <a:ext cx="5410200" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2322286</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4709886</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>947057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5388429" y="18741571"/>
+          <a:ext cx="2387600" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2703286</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>72572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4951186</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>923472</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13135429" y="18705286"/>
+          <a:ext cx="2247900" cy="850900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1487714</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6008914</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>979715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4553857" y="19739429"/>
+          <a:ext cx="4521200" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1923143</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5872843</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>986971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12355286" y="19721285"/>
+          <a:ext cx="3949700" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2594428</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4131128</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>645886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5660571" y="21590000"/>
+          <a:ext cx="1536700" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3066142</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4221842</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>598714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13498285" y="21644428"/>
+          <a:ext cx="1155700" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1959428</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5236028</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>537029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5025571" y="22370143"/>
+          <a:ext cx="3276600" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2177143</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5301343</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>620485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12609286" y="22351999"/>
+          <a:ext cx="3124200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1796143</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5288643</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>918028</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4862286" y="29609142"/>
+          <a:ext cx="3492500" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2122714</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5500914</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>908957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12554857" y="29663571"/>
+          <a:ext cx="3378200" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>471715</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>344714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6859815</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2732314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3537858" y="31931428"/>
+          <a:ext cx="6388100" cy="2387600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>798286</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>290286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7033986</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2741386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11230429" y="31877000"/>
+          <a:ext cx="6235700" cy="2451100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1197429</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>235858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5794829</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>718458</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4263572" y="30806572"/>
+          <a:ext cx="4597400" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1596571</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6105071</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>687614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="图片 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12028714" y="30788428"/>
+          <a:ext cx="4508500" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6654800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>872671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3955143" y="42962285"/>
+          <a:ext cx="5765800" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1270000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6934200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>774700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="图片 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11702143" y="43016714"/>
+          <a:ext cx="5664200" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3138714</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>326571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3976914</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>656771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="图片 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6204857" y="47915285"/>
+          <a:ext cx="838200" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3356429</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>362857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4372429</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>693057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="图片 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13788572" y="47951571"/>
+          <a:ext cx="1016000" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3029856</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>399143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4020456</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>729343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="图片 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6095999" y="49003857"/>
+          <a:ext cx="990600" cy="330200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3320143</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>344714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4412343</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>725714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="图片 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13752286" y="48949428"/>
+          <a:ext cx="1092200" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2921001</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>889000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4013201</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="图片 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5987144" y="50509714"/>
+          <a:ext cx="1092200" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3283857</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>852715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4401457</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>166915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="图片 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13716000" y="50473429"/>
+          <a:ext cx="1117600" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1799,184 +4682,814 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="96.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="102.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="96.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="102.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="7" customFormat="1" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C5" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="130" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="D5" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:4" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="1:4" s="10" customFormat="1" ht="230" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="10" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="10" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="10" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="18"/>
+    </row>
+    <row r="54" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="18"/>
+    </row>
+    <row r="56" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="62" spans="1:4" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C62" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:4" s="7" customFormat="1" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="7" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" s="7" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:4" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="210" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="D6:D14"/>
+  <mergeCells count="16">
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C6:C14"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D57:D58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/视觉slam十四讲第一版第二次印刷勘误.xlsx
+++ b/视觉slam十四讲第一版第二次印刷勘误.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="270">
   <si>
     <t>页数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,13 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>式(A.6)</t>
-    <rPh sb="0" eb="1">
-      <t>aa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ij=-k的描述替换为ij=k，-90度替换为90度</t>
     <rPh sb="5" eb="6">
       <t>r</t>
@@ -279,13 +272,6 @@
       <t>wh</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>式(A.10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>式(10.25)</t>
   </si>
   <si>
     <t>原文中出现R的地方均应该为Q</t>
@@ -384,16 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>附录A式(A.5)</t>
-    <rPh sb="0" eb="1">
-      <t>bwv</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>aa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P75.倒数第四行</t>
     <rPh sb="4" eb="5">
       <t>dao shu di si hang</t>
@@ -1731,9 +1707,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代码注释换行排版之后没有加上//</t>
-  </si>
-  <si>
     <t>P198.第十七行</t>
     <rPh sb="5" eb="6">
       <t>di wu hang</t>
@@ -1791,6 +1764,805 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>shang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P213.第十四行</t>
+    <rPh sb="5" eb="6">
+      <t>di shi si hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slambook/project/1.0/include/myslam/frame.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slambook/project/1.0/include/myslam/mypoint.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P214.第八行</t>
+    <rPh sb="5" eb="6">
+      <t>di ba hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>landmarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//landmarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P214.第十行</t>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//frames</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们把Config写成单件模式</t>
+    <rPh sb="0" eb="1">
+      <t>wo men ba</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xie cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们把Config写成单例模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与后续内容不一致，“单件”改为“单例”</t>
+    <rPh sb="0" eb="1">
+      <t>yu hou xu nei o n g bu yi zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei rong</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dan jian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gai wei</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dan li</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P214.第二十一行</t>
+    <rPh sb="5" eb="6">
+      <t>di</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>er shi yi hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P217.倒数第十四行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi si hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计录连续丢失帧数</t>
+    <rPh sb="0" eb="1">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录连续丢失帧数</t>
+    <rPh sb="0" eb="1">
+      <t>ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错别字，将“计”改为“记”</t>
+    <rPh sb="0" eb="1">
+      <t>cuo bie zi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P218.第十四行</t>
+    <rPh sb="5" eb="6">
+      <t>di</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi si hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// number of inlier features in icp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// number of inlier features in PnP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释错误</t>
+    <rPh sb="0" eb="1">
+      <t>zhu shi cuo wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P220.第六行</t>
+    <rPh sb="5" eb="6">
+      <t>di liu hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_c_r*T_r_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//T_c_r*T_r_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P242.式(10.25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P256.倒数第一行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu di yi hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们将使用公开的数据库</t>
+    <rPh sb="0" eb="1">
+      <t>wo men jiang shi yong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong aki de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shu ju ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们将使用公开的数据集</t>
+    <rPh sb="10" eb="11">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将“库”改为“集”</t>
+    <rPh sb="0" eb="1">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ku</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gai wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P266.第二十二行</t>
+    <rPh sb="5" eb="6">
+      <t>di</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>er shi er</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Each observatoin corrsponds to a pair of a camera and a point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Each observation corrsponds to a pair of a camera and a point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将“observatoin”改为“observation”</t>
+    <rPh sb="0" eb="1">
+      <t>jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P266.第二十九行</t>
+    <rPh sb="8" eb="9">
+      <t>jiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏了个}</t>
+    <rPh sb="0" eb="1">
+      <t>lou le ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P282.程序输出部分第一行</t>
+    <rPh sb="5" eb="6">
+      <t>cheng xu shu chu jie guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bu fen</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ build/pose_graph_g2o_lie sphere.g2o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ build/pose_graph_g2o_lie_algebra sphere.g2o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P285.图11-5的描述部分</t>
+    <rPh sb="5" eb="6">
+      <t>tu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>miao s</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bu fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖线为运动方程，其他线为观测方程。虚线框表示一次观测，实线框表示一次运动。</t>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yun dong fang cheng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi ta xian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guan ce fang cheng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xu xian kuang</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>biao shi yi ci guan ce</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shi xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他线为运动方程，竖线为观测方程。红线框表示一次观测，蓝线框表示一次运动。</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu xian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>hong</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>lan</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书本上看去都是虚线框，原图是有颜色的，建议改成实线框和虚线框</t>
+    <rPh sb="0" eb="1">
+      <t>shu ben shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kan qu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dou shi xu xian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xu xian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian kuang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yuan tu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi you yan se</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jian yi gai cheng</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>xian kuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P289.图11-8</t>
+    <rPh sb="5" eb="6">
+      <t>tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原图线条是有颜色的，但印刷出来的书本只有黑白，建议改成采用实线和虚线表示</t>
+    <rPh sb="0" eb="1">
+      <t>yuan tu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian tiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi you yan se de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yin shua chu lai de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shu ben</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhi you hei bai</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>jian yi gai cheng</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>cai yong</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shi xian</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>he</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>xu xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P293.第二十二行</t>
+    <rPh sb="5" eb="6">
+      <t>di er shi er hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P307.第一行</t>
+    <rPh sb="5" eb="6">
+      <t>di yi hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于slambook/ch9/data中</t>
+    <rPh sb="0" eb="1">
+      <t>wei yu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于slambook/ch12/data中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码文件路径与Github实际不符</t>
+    <rPh sb="0" eb="1">
+      <t>dai ma wen jian lu jing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi ji</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P307.倒数第九行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slambook/ch9/feature_training.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slambook/ch12/feature_training.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P308.倒数第三行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>di san hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of words = 4983</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of words = 4998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序输出结果与实际不符</t>
+    <rPh sb="0" eb="1">
+      <t>cheng xu shu chu jie guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yu shi ji bu fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P310.倒数第十六行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu di shi liu hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slambook/ch9/loop_closure.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slambook/ch12/loop_closure.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码文件路径与Github实际不符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P312.第一个程序输出部分</t>
+    <rPh sb="5" eb="6">
+      <t>di yi ge</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cheng xu shu chu bu fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序输出结果与实际完全不符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P314.倒数第十五行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu di shi wu hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slambook/ch9/vocab_larger.yml.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slambook/ch12/vocab_larger.yml.gz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P328.第十四行</t>
+    <rPh sb="5" eb="6">
+      <t>di shi si hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在test_data/Images中发现从0至200的所有图像</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fa xian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>de</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>suo you tu xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在test_data/images中发现从0至200的所有图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上并没有包含所有图像，下载之后会发现少了一张scene_107.png</t>
+    <rPh sb="0" eb="1">
+      <t>shi ji shang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bing mei you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bao han</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>suo you tu xiang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xia zai zhi hou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>hui fa xian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P342.倒数第二行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu di er hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在单双和双目的稠密重建中</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dan shuang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>he</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shuang mu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chou mi chong jian zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在单目和双目的稠密重建中</t>
+    <rPh sb="2" eb="3">
+      <t>mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错别字，将“单双”改为“单目”</t>
+    <rPh sb="0" eb="1">
+      <t>cuo bie zi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dan shuang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gai wei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dan mu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P348.第十四行</t>
+    <rPh sb="5" eb="6">
+      <t>di shi si hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而我们接下来要介绍的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而我们接来下要介绍的</t>
+    <rPh sb="0" eb="1">
+      <t>er wo men jie xia lai yao jie shao de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错别字，将“来下”改为“下来”</t>
+    <rPh sb="6" eb="7">
+      <t>lai xia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xia lai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P364.倒数第四行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu di si hang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如图14-4所示</t>
+    <rPh sb="0" eb="1">
+      <t>ru tu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>suo shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如图14-5所示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图示标号错误</t>
+    <rPh sb="0" eb="1">
+      <t>tu shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao hao cuo wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P372.式(A.6)</t>
+    <rPh sb="5" eb="6">
+      <t>aa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P372.式(A.5)</t>
+    <rPh sb="5" eb="6">
+      <t>aa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P373.式(A.10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P375.倒数第二行</t>
+    <rPh sb="5" eb="6">
+      <t>dao shu di er hqng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.aicrobo.com/ubuntu_for_ros.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那个网站已经404了</t>
+    <rPh sb="0" eb="1">
+      <t>na ge wang zhan yi jing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>le</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1876,7 +2648,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1892,8 +2664,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1945,9 +2720,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1957,11 +2729,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
@@ -1984,13 +2772,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1993900</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4305300</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2022,13 +2810,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>275771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4483100</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>1012371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2060,13 +2848,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2422071</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4936671</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>1104900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2280,13 +3068,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1473200</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>5207000</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>673100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2324,13 +3112,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1917700</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5283200</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>647700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2368,13 +3156,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2603500</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>137840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3975100</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>673099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2412,13 +3200,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2959100</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4356100</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>635000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2455,15 +3243,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1346200</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:colOff>1491343</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>415472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>635000</xdr:rowOff>
+      <xdr:colOff>1732643</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>707572</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2486,7 +3274,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18834100" y="23926800"/>
+          <a:off x="19743057" y="64768186"/>
           <a:ext cx="241300" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2500,13 +3288,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3323771</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3717471</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>273957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2544,13 +3332,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4109358</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4350658</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>5442</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2714,13 +3502,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7023100</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>2413000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2758,13 +3546,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7302500</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>2438400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2846,13 +3634,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2140857</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>72571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5112657</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>682171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4682,10 +5470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4712,769 +5500,1117 @@
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="7" customFormat="1" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="15" t="s">
+    </row>
+    <row r="12" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22"/>
+      <c r="B12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="18" t="s">
-        <v>59</v>
+      <c r="D15" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="18" t="s">
-        <v>60</v>
+      <c r="D18" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="18"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="18" t="s">
-        <v>60</v>
+      <c r="D21" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="18"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="18"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="18"/>
+        <v>86</v>
+      </c>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="18"/>
+        <v>93</v>
+      </c>
+      <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="18" t="s">
-        <v>102</v>
+      <c r="D33" s="21" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="18"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" s="10" customFormat="1" ht="230" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="18"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>118</v>
+        <v>152</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" s="18"/>
+        <v>152</v>
+      </c>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B43" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="10" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="10" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="10" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="s">
-        <v>161</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
-      <c r="D52" s="18" t="s">
-        <v>162</v>
+      <c r="D52" s="21" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
-      <c r="D53" s="18"/>
+      <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="18" t="s">
-        <v>164</v>
+        <v>159</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="21" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="18"/>
+        <v>161</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D58" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="D58" s="21"/>
     </row>
     <row r="59" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C59" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="B60" s="18" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="17" t="s">
+      <c r="C60" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="21"/>
+    </row>
+    <row r="63" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="10" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" s="7" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B62" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="D72" s="20"/>
+    </row>
+    <row r="73" spans="1:4" s="7" customFormat="1" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="1:4" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="10" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="7" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="14"/>
+    </row>
+    <row r="89" spans="1:4" s="7" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="14"/>
+    </row>
+    <row r="90" spans="1:4" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="1:4" s="7" customFormat="1" ht="210" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="7" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="14"/>
-    </row>
-    <row r="65" spans="1:4" s="7" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="14"/>
-    </row>
-    <row r="66" spans="1:4" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="14" t="s">
-        <v>14</v>
+    </row>
+    <row r="91" spans="1:4" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
     <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D71:D72"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D15:D16"/>
@@ -5492,8 +6628,11 @@
     <mergeCell ref="D57:D58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B91" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>